--- a/dashboard-data.xlsx
+++ b/dashboard-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>project 1</t>
   </si>
@@ -38,15 +38,18 @@
 </t>
   </si>
   <si>
-    <t>card1</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>nama project</t>
   </si>
   <si>
+    <t>header</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pemberi Pekerjaan </t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t>KL. 702/I/6/DO.1-2023, tanggal 04 Januari 2023</t>
   </si>
   <si>
-    <t>card2</t>
-  </si>
-  <si>
     <t>Nilai Pekerjaan</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
     <t>Wilayah Daop I Jakarta</t>
   </si>
   <si>
-    <t>card3</t>
-  </si>
-  <si>
     <t>list</t>
   </si>
   <si>
@@ -96,21 +93,143 @@
   </si>
   <si>
     <t>Pengecekan Detail Komponen Jaringan LAA|Menstandarkan posisi kedudukan Hanger, ear, kedudukan pull off,trolley, messanger, kelengkapan Aksesories JLAA|Pengecatan Komponen Jaringan LAA &amp; Marking Hasil Pekerjaan yang sudah dilakukan Overhaul dengan Scotlight Reflektor</t>
+  </si>
+  <si>
+    <t>pendapatan</t>
+  </si>
+  <si>
+    <t>Nilai Kontrak (Rp)</t>
+  </si>
+  <si>
+    <t>615,761,483,126</t>
+  </si>
+  <si>
+    <t>Nilai DPP (Rp)</t>
+  </si>
+  <si>
+    <t>554,740,074,888</t>
+  </si>
+  <si>
+    <t>Target Pendapatan Akhir Bulan</t>
+  </si>
+  <si>
+    <t>17,550,784,846</t>
+  </si>
+  <si>
+    <t>penagihan</t>
+  </si>
+  <si>
+    <t>Proses Tagihan Belum Lengkap (Rp)</t>
+  </si>
+  <si>
+    <t>114,306,556,333</t>
+  </si>
+  <si>
+    <t>Proses Sudah Penerbiatan Invoice (Rp)</t>
+  </si>
+  <si>
+    <t>6,516,999,503</t>
+  </si>
+  <si>
+    <t>Total Tagihan (Rp)</t>
+  </si>
+  <si>
+    <t>120,823,555,836</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>Kumulatif Rencana</t>
+  </si>
+  <si>
+    <t>Kumulatif Realisasi</t>
+  </si>
+  <si>
+    <t>Kumulatif Deviasi</t>
+  </si>
+  <si>
+    <t>grafik_progress_bar</t>
+  </si>
+  <si>
+    <t>Realisasi</t>
+  </si>
+  <si>
+    <t>Rencana</t>
+  </si>
+  <si>
+    <t>list_float</t>
+  </si>
+  <si>
+    <t>grafik_line</t>
+  </si>
+  <si>
+    <t>1.5, 3.25, 4.75, 6.75, 8.75, 10.75, 13, 15.25, 17.5, 19.75, 22.25</t>
+  </si>
+  <si>
+    <t>0.24, 2.58, 5.24, 7.96, 11.4, 14.26, 16.92, 21.58, 25.45, 28.75, 33.78</t>
+  </si>
+  <si>
+    <t>pekerjaan_title</t>
+  </si>
+  <si>
+    <t>URAIAN KEGIATAN</t>
+  </si>
+  <si>
+    <t>PROGRES PEKERJAAN</t>
+  </si>
+  <si>
+    <t>pekerjaan_data</t>
+  </si>
+  <si>
+    <t>Pekerjaan Gelaran FO</t>
+  </si>
+  <si>
+    <t>Pembuatan dan pemasangan Patok Kabel FO</t>
+  </si>
+  <si>
+    <t>Pekerjaan Gelaran Kabel Persinyalan</t>
+  </si>
+  <si>
+    <t>Menyelesaikan penggelaran kabel persinyalan dari sinyal blok KAS arah SIG s.d titik EH PAP KAS</t>
+  </si>
+  <si>
+    <t>FAT EH Container</t>
+  </si>
+  <si>
+    <t>Baik dan dapat diterima</t>
+  </si>
+  <si>
+    <t>MOS EH Container</t>
+  </si>
+  <si>
+    <t>Baik dan dapat diterima 100%, dapat dibayarkan 75% selama belum terpasang dilapangan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.95"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -566,153 +685,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,16 +1215,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="9.765625" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1109,7 +1240,7 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1121,13 +1252,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1138,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1155,13 +1286,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1169,15 +1300,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1186,15 +1317,15 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1203,15 +1334,15 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1223,14 +1354,329 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dashboard-data.xlsx
+++ b/dashboard-data.xlsx
@@ -4,20 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16180" activeTab="1"/>
+    <workbookView windowHeight="16180" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" r:id="rId1"/>
     <sheet name="project 1" sheetId="2" r:id="rId2"/>
-    <sheet name="project 2" sheetId="3" r:id="rId3"/>
-    <sheet name="project 3" sheetId="4" r:id="rId4"/>
+    <sheet name="project 1-1" sheetId="5" r:id="rId3"/>
+    <sheet name="project 1-2" sheetId="6" r:id="rId4"/>
+    <sheet name="project 1-3" sheetId="7" r:id="rId5"/>
+    <sheet name="project 2" sheetId="3" r:id="rId6"/>
+    <sheet name="project 2-1" sheetId="8" r:id="rId7"/>
+    <sheet name="project 2-2" sheetId="9" r:id="rId8"/>
+    <sheet name="project 2-3" sheetId="10" r:id="rId9"/>
+    <sheet name="project 3" sheetId="4" r:id="rId10"/>
+    <sheet name="project 3-1" sheetId="11" r:id="rId11"/>
+    <sheet name="project 3-2" sheetId="12" r:id="rId12"/>
+    <sheet name="project 3-3" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="74">
   <si>
     <t>project 1</t>
   </si>
@@ -41,12 +50,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>nama project</t>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
@@ -95,6 +98,27 @@
     <t>Pengecekan Detail Komponen Jaringan LAA|Menstandarkan posisi kedudukan Hanger, ear, kedudukan pull off,trolley, messanger, kelengkapan Aksesories JLAA|Pengecatan Komponen Jaringan LAA &amp; Marking Hasil Pekerjaan yang sudah dilakukan Overhaul dengan Scotlight Reflektor</t>
   </si>
   <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Minggu Ke 1</t>
+  </si>
+  <si>
+    <t>project 1-1</t>
+  </si>
+  <si>
+    <t>Minggu Ke 2</t>
+  </si>
+  <si>
+    <t>project 1-2</t>
+  </si>
+  <si>
+    <t>Minggu Ke 3</t>
+  </si>
+  <si>
+    <t>project 1-3</t>
+  </si>
+  <si>
     <t>pendapatan</t>
   </si>
   <si>
@@ -167,46 +191,64 @@
     <t>grafik_line</t>
   </si>
   <si>
+    <t>1.5, 3.25</t>
+  </si>
+  <si>
+    <t>0.24, 2.58</t>
+  </si>
+  <si>
+    <t>pekerjaan_data</t>
+  </si>
+  <si>
+    <t>Pekerjaan Gelaran FO</t>
+  </si>
+  <si>
+    <t>Pembuatan dan pemasangan Patok Kabel FO</t>
+  </si>
+  <si>
+    <t>Pekerjaan Gelaran Kabel Persinyalan</t>
+  </si>
+  <si>
+    <t>Menyelesaikan penggelaran kabel persinyalan dari sinyal blok KAS arah SIG s.d titik EH PAP KAS</t>
+  </si>
+  <si>
+    <t>FAT EH Container</t>
+  </si>
+  <si>
+    <t>Baik dan dapat diterima</t>
+  </si>
+  <si>
+    <t>MOS EH Container</t>
+  </si>
+  <si>
+    <t>Baik dan dapat diterima 100%, dapat dibayarkan 75% selama belum terpasang dilapangan</t>
+  </si>
+  <si>
+    <t>1.5, 3.25, 4.75, 6.75, 8.75</t>
+  </si>
+  <si>
+    <t>0.24, 2.58, 5.24, 7.96, 11.4</t>
+  </si>
+  <si>
     <t>1.5, 3.25, 4.75, 6.75, 8.75, 10.75, 13, 15.25, 17.5, 19.75, 22.25</t>
   </si>
   <si>
     <t>0.24, 2.58, 5.24, 7.96, 11.4, 14.26, 16.92, 21.58, 25.45, 28.75, 33.78</t>
   </si>
   <si>
-    <t>pekerjaan_title</t>
-  </si>
-  <si>
-    <t>URAIAN KEGIATAN</t>
-  </si>
-  <si>
-    <t>PROGRES PEKERJAAN</t>
-  </si>
-  <si>
-    <t>pekerjaan_data</t>
-  </si>
-  <si>
-    <t>Pekerjaan Gelaran FO</t>
-  </si>
-  <si>
-    <t>Pembuatan dan pemasangan Patok Kabel FO</t>
-  </si>
-  <si>
-    <t>Pekerjaan Gelaran Kabel Persinyalan</t>
-  </si>
-  <si>
-    <t>Menyelesaikan penggelaran kabel persinyalan dari sinyal blok KAS arah SIG s.d titik EH PAP KAS</t>
-  </si>
-  <si>
-    <t>FAT EH Container</t>
-  </si>
-  <si>
-    <t>Baik dan dapat diterima</t>
-  </si>
-  <si>
-    <t>MOS EH Container</t>
-  </si>
-  <si>
-    <t>Baik dan dapat diterima 100%, dapat dibayarkan 75% selama belum terpasang dilapangan</t>
+    <t>project 2-1</t>
+  </si>
+  <si>
+    <t>project 2-2</t>
+  </si>
+  <si>
+    <t>project 2-3</t>
+  </si>
+  <si>
+    <t>project 3-1</t>
+  </si>
+  <si>
+    <t>project 3-2</t>
   </si>
 </sst>
 </file>
@@ -214,11 +256,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -244,18 +286,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,7 +302,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,36 +328,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,16 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,14 +371,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +411,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -395,7 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +485,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,19 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +563,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,67 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +622,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,15 +645,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,21 +700,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -680,144 +713,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,7 +868,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,7 +1210,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1212,13 +1254,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1235,13 +1441,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1252,13 +1458,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1269,13 +1475,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,14 +1491,14 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1302,14 +1508,14 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,14 +1525,14 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1334,16 +1540,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1351,16 +1557,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1368,16 +1574,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1385,16 +1591,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1402,16 +1608,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1419,16 +1625,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1436,247 +1642,893 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
-        <v>15.67</v>
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20.936</v>
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29"/>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1687,21 +2539,309 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1712,20 +2852,1726 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.765625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
